--- a/intothecodingworld/task02/merge.xlsx
+++ b/intothecodingworld/task02/merge.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>정현수</t>
+          <t>최현수</t>
         </is>
       </c>
     </row>
